--- a/Functional-Group/Datas/correlation_data.xlsx
+++ b/Functional-Group/Datas/correlation_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ether</t>
+          <t>aldehyde</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>aldehyde</t>
+          <t>aromatic</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>aromatic</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>cycle</t>
         </is>
@@ -470,103 +465,69 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2924907040722345</v>
+        <v>0.08663954262881006</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08663954262881006</v>
+        <v>-0.07991058110187403</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.07991058110187403</v>
-      </c>
-      <c r="F2" t="n">
         <v>0.09542827420334238</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ether</t>
+          <t>aldehyde</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2924907040722345</v>
+        <v>0.08663954262881006</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.155084941831601</v>
+        <v>-0.05656442953322588</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03488506114257402</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.09078785380798864</v>
+        <v>0.128529664443122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>aldehyde</t>
+          <t>aromatic</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08663954262881006</v>
+        <v>-0.07991058110187403</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.155084941831601</v>
+        <v>-0.05656442953322588</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05656442953322588</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.128529664443122</v>
+        <v>-0.2608495356690502</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>aromatic</t>
+          <t>cycle</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07991058110187403</v>
+        <v>0.09542827420334238</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03488506114257402</v>
+        <v>0.128529664443122</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05656442953322588</v>
+        <v>-0.2608495356690502</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.2608495356690502</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>cycle</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.09542827420334238</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09078785380798864</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.128529664443122</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.2608495356690502</v>
-      </c>
-      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
